--- a/Test Data/Verify_24V_PSU_Load_Maximum_Limit.xlsx
+++ b/Test Data/Verify_24V_PSU_Load_Maximum_Limit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65136CF-0AB5-4E53-972B-7AD3AF15CFFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D98E26-687D-4310-8993-E71CF8F451B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Color Codes</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>NGC-1526</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -235,14 +241,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,29 +547,30 @@
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -572,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -584,16 +594,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -612,8 +622,11 @@
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -629,11 +642,14 @@
       <c r="E8" s="6">
         <v>13</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -649,11 +665,14 @@
       <c r="E9" s="6">
         <v>13</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -669,11 +688,14 @@
       <c r="E10" s="6">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -689,11 +711,14 @@
       <c r="E11" s="6">
         <v>14</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -709,11 +734,14 @@
       <c r="E12" s="6">
         <v>13</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -729,8 +757,11 @@
       <c r="E13" s="6">
         <v>13</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_24V_PSU_Load_Maximum_Limit.xlsx
+++ b/Test Data/Verify_24V_PSU_Load_Maximum_Limit.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D98E26-687D-4310-8993-E71CF8F451B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -132,13 +131,13 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>Main Processor 24V (A)</t>
+    <t>24V Rail(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,14 +243,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,12 +550,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -565,10 +564,10 @@
       <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -645,7 +644,7 @@
       <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -668,7 +667,7 @@
       <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -691,7 +690,7 @@
       <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -714,7 +713,7 @@
       <c r="F11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -737,7 +736,7 @@
       <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -760,7 +759,7 @@
       <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Test Data/Verify_24V_PSU_Load_Maximum_Limit.xlsx
+++ b/Test Data/Verify_24V_PSU_Load_Maximum_Limit.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022970D-D9AD-4381-ACD1-DEFDE1C2E7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Color Codes</t>
   </si>
@@ -83,9 +78,6 @@
     <t>Expected Max 24V PSU Load</t>
   </si>
   <si>
-    <t>CPU 800</t>
-  </si>
-  <si>
     <t>2.500</t>
   </si>
   <si>
@@ -95,15 +87,6 @@
     <t>P405D</t>
   </si>
   <si>
-    <t>Pro32xD</t>
-  </si>
-  <si>
-    <t>MX2-100</t>
-  </si>
-  <si>
-    <t>P885D</t>
-  </si>
-  <si>
     <t>1.900</t>
   </si>
   <si>
@@ -132,12 +115,18 @@
   </si>
   <si>
     <t>24V Rail(A)</t>
+  </si>
+  <si>
+    <t>CPU 801</t>
+  </si>
+  <si>
+    <t>Pro885D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -574,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
@@ -586,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
@@ -622,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -633,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -642,21 +631,21 @@
         <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -665,21 +654,21 @@
         <v>13</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
@@ -688,79 +677,33 @@
         <v>13</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
         <v>14</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6">
-        <v>13</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6">
-        <v>13</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
